--- a/moto2020 .xlsx
+++ b/moto2020 .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t xml:space="preserve">km</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t xml:space="preserve">pastilha freio diant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camara diant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camara tras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">junta magneto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cebolinha neutro</t>
   </si>
   <si>
     <t xml:space="preserve">disco embreagem</t>
@@ -913,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -923,7 +935,7 @@
       <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.29"/>
@@ -1167,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1177,7 +1189,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.13"/>
@@ -6388,7 +6400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6398,7 +6410,7 @@
       <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="51" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="51" width="8.71"/>
@@ -7896,21 +7908,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:T1048576"/>
+  <dimension ref="A2:X95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
@@ -7918,16 +7930,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.63"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7963,19 +7975,19 @@
         <v>34</v>
       </c>
       <c r="K3" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="62" t="s">
         <v>35</v>
-      </c>
-      <c r="L3" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>42</v>
       </c>
       <c r="P3" s="62" t="s">
         <v>43</v>
@@ -7991,6 +8003,18 @@
       </c>
       <c r="T3" s="62" t="s">
         <v>47</v>
+      </c>
+      <c r="U3" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="62" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8008,7 +8032,7 @@
       <c r="C5" s="0" t="n">
         <v>74037</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8016,7 +8040,7 @@
       <c r="C6" s="0" t="n">
         <v>76049</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8039,32 +8063,48 @@
       <c r="I7" s="0" t="n">
         <v>495</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A8" s="64" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>78640</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>140</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8145,11 +8185,6 @@
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8162,7 +8197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8172,7 +8207,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.71"/>
@@ -8225,13 +8260,13 @@
         <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8239,7 +8274,7 @@
         <v>63764</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8247,7 +8282,7 @@
         <v>79581</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8255,7 +8290,7 @@
         <v>81021</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8263,10 +8298,10 @@
         <v>118361</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
